--- a/NewMexico/Regulatory/NM_RegulatoryInfo Schema Mapping to WaDE_QA.xlsx
+++ b/NewMexico/Regulatory/NM_RegulatoryInfo Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NewMexico\Regulatory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE64C5D-354E-43D4-83B5-754723A5CFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C106AB-152A-496E-8069-93A330183B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="645" activeTab="6" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -606,11 +606,6 @@
 Active</t>
   </si>
   <si>
-    <t>(blank);
-https://nmonesource.com/nmos/nmsa/en/item/4402/index.do#!fragment/zoupio-_Toc74832537/BQCwhgziBcwMYgK4DsDWszIQewE4BUBTADwBdoAvbRABwEtsBaAfX2zgHYAWADgGYATAFY+HAJQAaZNlKEIARUSFcAT2gBydRIiEwuBIuVrN23fpABlPKQBCagEoBRADKOAagEEAcgGFHE0jAAI2hSdjExIA;
-(blank);</t>
-  </si>
-  <si>
     <t>URL;
 URL;
 (blank)</t>
@@ -637,6 +632,12 @@
   </si>
   <si>
     <t>Issue of some RegulatoryName in Special Conditions Water Rights have a NvarChar longer than 50.</t>
+  </si>
+  <si>
+    <t>Unspecified;</t>
+  </si>
+  <si>
+    <t>Some statue info here, but its hard to understand. https://nmonesource.com/nmos/nmsa/en/item/4402/index.do#!fragment/zoupio-_Toc74832537/BQCwhgziBcwMYgK4DsDWszIQewE4BUBTADwBdoAvbRABwEtsBaAfX2zgHYAWADgGYATAFY+HAJQAaZNlKEIARUSFcAT2gBydRIiEwuBIuVrN23fpABlPKQBCagEoBRADKOAagEEAcgGFHE0jAAI2hSdjExIA;</t>
   </si>
 </sst>
 </file>
@@ -1705,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1785,6 +1786,11 @@
         <v>146</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>176</v>
+      </c>
+    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="97" t="s">
         <v>147</v>
@@ -1795,7 +1801,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="128" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2600,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G7" s="114" t="s">
         <v>162</v>
@@ -2624,7 +2630,7 @@
         <v>164</v>
       </c>
       <c r="F8" s="125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G8" s="114" t="s">
         <v>163</v>
@@ -2679,7 +2685,7 @@
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="113" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F10" s="124" t="s">
         <v>11</v>
@@ -2821,8 +2827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840F4EBE-1122-49FE-9814-7C21AEF7536A}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2947,7 +2953,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G5" s="114" t="s">
         <v>165</v>
@@ -2978,7 +2984,7 @@
         <v>156</v>
       </c>
       <c r="F6" s="113" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G6" s="127" t="s">
         <v>166</v>
@@ -3007,7 +3013,7 @@
       </c>
       <c r="E7" s="109"/>
       <c r="F7" s="125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G7" s="114" t="s">
         <v>167</v>
@@ -3083,7 +3089,7 @@
       </c>
       <c r="K9" s="30"/>
     </row>
-    <row r="10" spans="1:11" s="11" customFormat="1" ht="96" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="11" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
         <v>82</v>
       </c>
@@ -3097,10 +3103,10 @@
         <v>11</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F10" s="125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G10" s="69" t="s">
         <v>11</v>
@@ -3131,10 +3137,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G11" s="120" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H11" s="72" t="s">
         <v>11</v>
@@ -3162,10 +3168,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G12" s="120" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H12" s="72" t="s">
         <v>11</v>
@@ -3225,7 +3231,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>11</v>
@@ -3634,7 +3640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0292DBD0-9449-426F-89D5-E70E5E92E32E}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
